--- a/docs/00-天翼云集成实施基本信息表模板(网络和服务器设备表含公式)20230126.xlsx
+++ b/docs/00-天翼云集成实施基本信息表模板(网络和服务器设备表含公式)20230126.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://shideal.sharepoint.com/sites/ideal/Shared Documents/工具链/交维材料自动化生成模板/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\python\jw3\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="331" documentId="13_ncr:1_{090C9A8E-CA1B-401E-829A-642776C7BE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BDF7F03-5C71-40EF-9FBC-81454F4058BA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CEE23D-6C84-4869-9694-20C10AA31BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="693" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明（勿修改）" sheetId="21" r:id="rId1"/>
@@ -106,20 +106,7 @@
     <definedName name="综合" localSheetId="8" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="综合" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -299,14 +286,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -321,7 +308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="935">
   <si>
     <t>模板名称</t>
   </si>
@@ -3967,6 +3954,10 @@
   </si>
   <si>
     <t>hncz-yum-server</t>
+  </si>
+  <si>
+    <t>惠普</t>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6731,6 +6722,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="2" xfId="471" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="4" borderId="2" xfId="471" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="471" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="424" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="2" xfId="424" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="424" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="4" borderId="2" xfId="424" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="424" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="424" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6743,12 +6776,12 @@
     <xf numFmtId="49" fontId="24" fillId="0" borderId="2" xfId="200" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6777,48 +6810,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="17" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="2" xfId="471" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="4" borderId="2" xfId="471" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="471" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="424" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="2" xfId="424" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="424" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="4" borderId="2" xfId="424" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="424" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="424" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7495,7 +7486,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="说明"/>
@@ -7668,7 +7659,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="说明（勿修改）"/>
@@ -8053,60 +8044,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="70.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.4140625" customWidth="1"/>
+    <col min="2" max="2" width="70.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.08203125" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.2" customHeight="1">
+    <row r="1" spans="1:3" ht="25.25" customHeight="1">
       <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="191" t="s">
+      <c r="B1" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="191"/>
-    </row>
-    <row r="2" spans="1:3" ht="25.2" customHeight="1">
+      <c r="C1" s="205"/>
+    </row>
+    <row r="2" spans="1:3" ht="25.25" customHeight="1">
       <c r="A2" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="205" t="s">
         <v>897</v>
       </c>
-      <c r="C2" s="191"/>
-    </row>
-    <row r="3" spans="1:3" ht="25.2" customHeight="1">
+      <c r="C2" s="205"/>
+    </row>
+    <row r="3" spans="1:3" ht="25.25" customHeight="1">
       <c r="A3" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="191" t="s">
+      <c r="B3" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="191"/>
-    </row>
-    <row r="4" spans="1:3" ht="110.1" customHeight="1">
+      <c r="C3" s="205"/>
+    </row>
+    <row r="4" spans="1:3" ht="110.15" customHeight="1">
       <c r="A4" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="192" t="s">
+      <c r="B4" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="191"/>
-    </row>
-    <row r="5" spans="1:3" ht="52.2" customHeight="1">
-      <c r="A5" s="193" t="s">
+      <c r="C4" s="205"/>
+    </row>
+    <row r="5" spans="1:3" ht="52.25" customHeight="1">
+      <c r="A5" s="207" t="s">
         <v>896</v>
       </c>
-      <c r="B5" s="193"/>
-      <c r="C5" s="193"/>
+      <c r="B5" s="207"/>
+      <c r="C5" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8132,38 +8123,38 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="23" style="159" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" style="159" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="159" customWidth="1"/>
+    <col min="2" max="2" width="37.9140625" style="159" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="159" customWidth="1"/>
     <col min="4" max="4" width="15" style="159" customWidth="1"/>
     <col min="5" max="5" width="28" style="159" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" style="159" customWidth="1"/>
-    <col min="7" max="8" width="21.44140625" style="159" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" style="159" customWidth="1"/>
+    <col min="7" max="8" width="21.4140625" style="159" customWidth="1"/>
     <col min="9" max="9" width="16" style="159" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" style="159" customWidth="1"/>
+    <col min="10" max="10" width="19.4140625" style="159" customWidth="1"/>
     <col min="11" max="11" width="15" style="159" customWidth="1"/>
     <col min="12" max="12" width="12.33203125" style="159" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" style="159" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" style="159" customWidth="1"/>
-    <col min="15" max="15" width="16.77734375" style="159" customWidth="1"/>
+    <col min="13" max="13" width="13.4140625" style="159" customWidth="1"/>
+    <col min="14" max="14" width="16.08203125" style="159" customWidth="1"/>
+    <col min="15" max="15" width="16.75" style="159" customWidth="1"/>
     <col min="16" max="16" width="13" style="159" customWidth="1"/>
     <col min="17" max="25" width="10" style="159" customWidth="1"/>
-    <col min="26" max="16384" width="8.77734375" style="159"/>
+    <col min="26" max="16384" width="8.75" style="159"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="37.799999999999997" customHeight="1">
-      <c r="A1" s="220" t="s">
+    <row r="1" spans="1:25" ht="37.75" customHeight="1">
+      <c r="A1" s="204" t="s">
         <v>421</v>
       </c>
-      <c r="B1" s="220" t="s">
+      <c r="B1" s="204" t="s">
         <v>748</v>
       </c>
       <c r="C1" s="167" t="s">
         <v>769</v>
       </c>
-      <c r="D1" s="220" t="s">
+      <c r="D1" s="204" t="s">
         <v>68</v>
       </c>
       <c r="E1" s="167" t="s">
@@ -8181,7 +8172,7 @@
       <c r="I1" s="166" t="s">
         <v>753</v>
       </c>
-      <c r="J1" s="219" t="s">
+      <c r="J1" s="203" t="s">
         <v>754</v>
       </c>
       <c r="K1" s="160"/>
@@ -8698,7 +8689,7 @@
     <row r="14" spans="1:25" ht="18" customHeight="1">
       <c r="A14" s="160"/>
       <c r="B14" s="160" t="str">
-        <f>B2</f>
+        <f t="shared" ref="B14:B19" si="0">B2</f>
         <v>hncz-yum-server-11e107e135e241</v>
       </c>
       <c r="C14" s="190" t="str">
@@ -8763,7 +8754,7 @@
     <row r="15" spans="1:25" ht="18" customHeight="1">
       <c r="A15" s="160"/>
       <c r="B15" s="160" t="str">
-        <f>B3</f>
+        <f t="shared" si="0"/>
         <v>hncz-cobbler-server-11e107e135e236</v>
       </c>
       <c r="C15" s="190" t="str">
@@ -8828,7 +8819,7 @@
     <row r="16" spans="1:25" ht="18" customHeight="1">
       <c r="A16" s="160"/>
       <c r="B16" s="160" t="str">
-        <f>B4</f>
+        <f t="shared" si="0"/>
         <v>hncz-nat-server-11e107e135e219</v>
       </c>
       <c r="C16" s="190" t="str">
@@ -8893,7 +8884,7 @@
     <row r="17" spans="1:25" ht="18" customHeight="1">
       <c r="A17" s="160"/>
       <c r="B17" s="160" t="str">
-        <f>B5</f>
+        <f t="shared" si="0"/>
         <v>hncz-tiaoban01-11e107e135e249</v>
       </c>
       <c r="C17" s="190" t="str">
@@ -8960,7 +8951,7 @@
     <row r="18" spans="1:25" ht="18" customHeight="1">
       <c r="A18" s="160"/>
       <c r="B18" s="160" t="str">
-        <f>B6</f>
+        <f t="shared" si="0"/>
         <v>hncz-yundiaosnmp1-10e17e30e138</v>
       </c>
       <c r="C18" s="190" t="str">
@@ -9011,7 +9002,7 @@
     <row r="19" spans="1:25" ht="18" customHeight="1">
       <c r="A19" s="160"/>
       <c r="B19" s="160" t="str">
-        <f>B7</f>
+        <f t="shared" si="0"/>
         <v>hncz-yundiaosnmp2-10e17e30e139</v>
       </c>
       <c r="C19" s="190" t="str">
@@ -13369,13 +13360,13 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="14" width="11.5546875" customWidth="1"/>
+    <col min="2" max="14" width="11.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28.8">
+    <row r="1" spans="1:14" ht="28">
       <c r="A1" s="6" t="s">
         <v>781</v>
       </c>
@@ -13451,7 +13442,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="21.6">
+    <row r="3" spans="1:14">
       <c r="A3" s="9" t="s">
         <v>801</v>
       </c>
@@ -13515,7 +13506,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="21.6">
+    <row r="5" spans="1:14">
       <c r="A5" s="9" t="s">
         <v>805</v>
       </c>
@@ -13819,20 +13810,20 @@
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.4140625" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="6" width="21.44140625" customWidth="1"/>
+    <col min="5" max="6" width="21.4140625" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.08203125" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>819</v>
       </c>
@@ -13864,7 +13855,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="28.8">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="28">
       <c r="A2" s="4" t="s">
         <v>826</v>
       </c>
@@ -13896,7 +13887,7 @@
         <v>65258</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="28.8">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="28">
       <c r="A3" s="4" t="s">
         <v>826</v>
       </c>
@@ -13961,49 +13952,49 @@
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="217" t="s">
         <v>837</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="204" t="s">
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="218" t="s">
         <v>838</v>
       </c>
-      <c r="J1" s="204"/>
-      <c r="K1" s="205"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="206" t="s">
+      <c r="J1" s="218"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="218"/>
+      <c r="N1" s="220" t="s">
         <v>839</v>
       </c>
-      <c r="O1" s="206"/>
-      <c r="P1" s="206"/>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="206"/>
-      <c r="S1" s="206"/>
-      <c r="T1" s="206"/>
-      <c r="U1" s="206"/>
-      <c r="V1" s="206"/>
-      <c r="W1" s="206"/>
-      <c r="X1" s="206"/>
-      <c r="Y1" s="206"/>
-      <c r="Z1" s="206"/>
-      <c r="AA1" s="206"/>
-      <c r="AB1" s="206"/>
-      <c r="AC1" s="206"/>
-    </row>
-    <row r="2" spans="1:29" s="30" customFormat="1" ht="19.2">
+      <c r="O1" s="220"/>
+      <c r="P1" s="220"/>
+      <c r="Q1" s="220"/>
+      <c r="R1" s="220"/>
+      <c r="S1" s="220"/>
+      <c r="T1" s="220"/>
+      <c r="U1" s="220"/>
+      <c r="V1" s="220"/>
+      <c r="W1" s="220"/>
+      <c r="X1" s="220"/>
+      <c r="Y1" s="220"/>
+      <c r="Z1" s="220"/>
+      <c r="AA1" s="220"/>
+      <c r="AB1" s="220"/>
+      <c r="AC1" s="220"/>
+    </row>
+    <row r="2" spans="1:29" s="30" customFormat="1" ht="19">
       <c r="A2" s="31" t="s">
         <v>20</v>
       </c>
@@ -14092,7 +14083,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="30" customFormat="1" ht="48">
+    <row r="3" spans="1:29" s="30" customFormat="1" ht="47.5">
       <c r="A3" s="34" t="str">
         <f>项目信息!C5</f>
         <v>郑州3</v>
@@ -14174,7 +14165,7 @@
       </c>
       <c r="AC3" s="46"/>
     </row>
-    <row r="4" spans="1:29" s="30" customFormat="1" ht="48">
+    <row r="4" spans="1:29" s="30" customFormat="1" ht="47.5">
       <c r="A4" s="34" t="str">
         <f>项目信息!C5</f>
         <v>郑州3</v>
@@ -14256,7 +14247,7 @@
       </c>
       <c r="AC4" s="46"/>
     </row>
-    <row r="5" spans="1:29" s="30" customFormat="1" ht="48">
+    <row r="5" spans="1:29" s="30" customFormat="1" ht="47.5">
       <c r="A5" s="34" t="str">
         <f>项目信息!C5</f>
         <v>郑州3</v>
@@ -14338,7 +14329,7 @@
       </c>
       <c r="AC5" s="46"/>
     </row>
-    <row r="6" spans="1:29" s="30" customFormat="1" ht="48">
+    <row r="6" spans="1:29" s="30" customFormat="1" ht="47.5">
       <c r="A6" s="34" t="str">
         <f>项目信息!C5</f>
         <v>郑州3</v>
@@ -14445,16 +14436,16 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.4140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" style="96" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" customWidth="1"/>
     <col min="4" max="4" width="71.6640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="53.5546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="53.58203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -14473,7 +14464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="108" customFormat="1" ht="12">
+    <row r="2" spans="1:4" s="108" customFormat="1" ht="13">
       <c r="A2" s="107" t="s">
         <v>11</v>
       </c>
@@ -14487,7 +14478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="108" customFormat="1" ht="12">
+    <row r="3" spans="1:4" s="108" customFormat="1" ht="13">
       <c r="A3" s="107" t="s">
         <v>11</v>
       </c>
@@ -14501,7 +14492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="108" customFormat="1" ht="12">
+    <row r="4" spans="1:4" s="108" customFormat="1" ht="13">
       <c r="A4" s="107" t="s">
         <v>11</v>
       </c>
@@ -14515,7 +14506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="108" customFormat="1" ht="12">
+    <row r="5" spans="1:4" s="108" customFormat="1" ht="13">
       <c r="A5" s="107" t="s">
         <v>11</v>
       </c>
@@ -14529,7 +14520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="108" customFormat="1" ht="12">
+    <row r="6" spans="1:4" s="108" customFormat="1" ht="13">
       <c r="A6" s="107" t="s">
         <v>11</v>
       </c>
@@ -14541,7 +14532,7 @@
       </c>
       <c r="D6" s="111"/>
     </row>
-    <row r="7" spans="1:4" s="108" customFormat="1" ht="12">
+    <row r="7" spans="1:4" s="108" customFormat="1" ht="13">
       <c r="A7" s="107" t="s">
         <v>11</v>
       </c>
@@ -14553,7 +14544,7 @@
       </c>
       <c r="D7" s="111"/>
     </row>
-    <row r="8" spans="1:4" s="108" customFormat="1" ht="12">
+    <row r="8" spans="1:4" s="108" customFormat="1" ht="13">
       <c r="A8" s="107" t="s">
         <v>11</v>
       </c>
@@ -14565,7 +14556,7 @@
       </c>
       <c r="D8" s="111"/>
     </row>
-    <row r="9" spans="1:4" s="108" customFormat="1" ht="12.6" customHeight="1">
+    <row r="9" spans="1:4" s="108" customFormat="1" ht="12.65" customHeight="1">
       <c r="A9" s="107" t="s">
         <v>28</v>
       </c>
@@ -14579,7 +14570,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="108" customFormat="1" ht="12">
+    <row r="10" spans="1:4" s="108" customFormat="1" ht="13">
       <c r="A10" s="107" t="s">
         <v>11</v>
       </c>
@@ -14593,7 +14584,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="108" customFormat="1" ht="12">
+    <row r="11" spans="1:4" s="108" customFormat="1" ht="13">
       <c r="A11" s="107" t="s">
         <v>11</v>
       </c>
@@ -14607,7 +14598,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="108" customFormat="1" ht="12">
+    <row r="12" spans="1:4" s="108" customFormat="1" ht="13">
       <c r="A12" s="107" t="s">
         <v>11</v>
       </c>
@@ -14621,7 +14612,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="108" customFormat="1" ht="12">
+    <row r="13" spans="1:4" s="108" customFormat="1" ht="13">
       <c r="A13" s="107" t="s">
         <v>11</v>
       </c>
@@ -14635,7 +14626,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="108" customFormat="1" ht="12">
+    <row r="14" spans="1:4" s="108" customFormat="1" ht="13">
       <c r="A14" s="107" t="s">
         <v>11</v>
       </c>
@@ -14649,7 +14640,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="108" customFormat="1" ht="12">
+    <row r="15" spans="1:4" s="108" customFormat="1" ht="13">
       <c r="A15" s="107" t="s">
         <v>47</v>
       </c>
@@ -14663,7 +14654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="108" customFormat="1" ht="12">
+    <row r="16" spans="1:4" s="108" customFormat="1" ht="13">
       <c r="A16" s="107" t="s">
         <v>51</v>
       </c>
@@ -14677,7 +14668,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="108" customFormat="1" ht="12">
+    <row r="17" spans="1:4" s="108" customFormat="1" ht="13">
       <c r="A17" s="107" t="s">
         <v>51</v>
       </c>
@@ -14691,7 +14682,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="108" customFormat="1" ht="12">
+    <row r="18" spans="1:4" s="108" customFormat="1" ht="13">
       <c r="A18" s="107" t="s">
         <v>51</v>
       </c>
@@ -14705,7 +14696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="108" customFormat="1" ht="12">
+    <row r="19" spans="1:4" s="108" customFormat="1" ht="13">
       <c r="A19" s="107" t="s">
         <v>51</v>
       </c>
@@ -14719,7 +14710,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="108" customFormat="1" ht="12">
+    <row r="20" spans="1:4" s="108" customFormat="1" ht="13">
       <c r="A20" s="107" t="s">
         <v>51</v>
       </c>
@@ -14749,35 +14740,35 @@
   </sheetPr>
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="103"/>
-    <col min="2" max="2" width="10.109375" style="103" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" style="103" customWidth="1"/>
+    <col min="2" max="2" width="10.08203125" style="103" customWidth="1"/>
+    <col min="3" max="3" width="17.08203125" style="103" customWidth="1"/>
     <col min="4" max="4" width="28" style="103" customWidth="1"/>
     <col min="5" max="5" width="5.33203125" style="103" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="104" customWidth="1"/>
-    <col min="7" max="7" width="43.44140625" style="103" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="103" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" style="103" customWidth="1"/>
-    <col min="10" max="10" width="43.109375" style="103" customWidth="1"/>
+    <col min="6" max="6" width="9.4140625" style="104" customWidth="1"/>
+    <col min="7" max="7" width="43.4140625" style="103" customWidth="1"/>
+    <col min="8" max="8" width="7.58203125" style="103" customWidth="1"/>
+    <col min="9" max="9" width="21.58203125" style="103" customWidth="1"/>
+    <col min="10" max="10" width="43.08203125" style="103" customWidth="1"/>
     <col min="11" max="11" width="20.33203125" style="103" customWidth="1"/>
-    <col min="12" max="12" width="21.5546875" style="103" customWidth="1"/>
+    <col min="12" max="12" width="21.58203125" style="103" customWidth="1"/>
     <col min="13" max="13" width="18.33203125" style="103" customWidth="1"/>
     <col min="14" max="14" width="20.33203125" style="103" customWidth="1"/>
-    <col min="15" max="18" width="21.5546875" style="103" customWidth="1"/>
+    <col min="15" max="18" width="21.58203125" style="103" customWidth="1"/>
     <col min="19" max="19" width="31" style="103" customWidth="1"/>
-    <col min="20" max="20" width="21.109375" style="103" customWidth="1"/>
-    <col min="21" max="21" width="10.109375" style="103" customWidth="1"/>
+    <col min="20" max="20" width="21.08203125" style="103" customWidth="1"/>
+    <col min="21" max="21" width="10.08203125" style="103" customWidth="1"/>
     <col min="22" max="22" width="9" style="103" customWidth="1"/>
     <col min="23" max="16384" width="9" style="103"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="149" customFormat="1" ht="28.8">
+    <row r="1" spans="1:22" s="149" customFormat="1" ht="28">
       <c r="A1" s="149" t="s">
         <v>62</v>
       </c>
@@ -14843,8 +14834,8 @@
       </c>
       <c r="V1" s="152"/>
     </row>
-    <row r="2" spans="1:22" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A2" s="194" t="s">
+    <row r="2" spans="1:22" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A2" s="208" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="106">
@@ -14906,8 +14897,8 @@
       </c>
       <c r="U2" s="188"/>
     </row>
-    <row r="3" spans="1:22" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A3" s="194"/>
+    <row r="3" spans="1:22" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A3" s="208"/>
       <c r="B3" s="106" t="s">
         <v>97</v>
       </c>
@@ -14967,8 +14958,8 @@
       </c>
       <c r="U3" s="188"/>
     </row>
-    <row r="4" spans="1:22" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A4" s="194"/>
+    <row r="4" spans="1:22" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A4" s="208"/>
       <c r="B4" s="106" t="s">
         <v>106</v>
       </c>
@@ -15028,8 +15019,8 @@
       </c>
       <c r="U4" s="188"/>
     </row>
-    <row r="5" spans="1:22" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A5" s="194"/>
+    <row r="5" spans="1:22" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A5" s="208"/>
       <c r="B5" s="106" t="s">
         <v>109</v>
       </c>
@@ -15089,8 +15080,8 @@
       </c>
       <c r="U5" s="188"/>
     </row>
-    <row r="6" spans="1:22" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A6" s="194"/>
+    <row r="6" spans="1:22" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A6" s="208"/>
       <c r="B6" s="106" t="s">
         <v>112</v>
       </c>
@@ -15150,8 +15141,8 @@
       </c>
       <c r="U6" s="188"/>
     </row>
-    <row r="7" spans="1:22" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A7" s="194"/>
+    <row r="7" spans="1:22" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A7" s="208"/>
       <c r="B7" s="106" t="s">
         <v>120</v>
       </c>
@@ -15212,8 +15203,8 @@
       </c>
       <c r="U7" s="188"/>
     </row>
-    <row r="8" spans="1:22" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A8" s="194"/>
+    <row r="8" spans="1:22" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A8" s="208"/>
       <c r="B8" s="106">
         <v>7</v>
       </c>
@@ -15273,8 +15264,8 @@
       </c>
       <c r="U8" s="188"/>
     </row>
-    <row r="9" spans="1:22" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A9" s="194"/>
+    <row r="9" spans="1:22" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A9" s="208"/>
       <c r="B9" s="106" t="s">
         <v>126</v>
       </c>
@@ -15334,8 +15325,8 @@
       </c>
       <c r="U9" s="188"/>
     </row>
-    <row r="10" spans="1:22" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A10" s="194"/>
+    <row r="10" spans="1:22" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A10" s="208"/>
       <c r="B10" s="106" t="s">
         <v>130</v>
       </c>
@@ -15395,8 +15386,8 @@
       </c>
       <c r="U10" s="188"/>
     </row>
-    <row r="11" spans="1:22" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A11" s="194"/>
+    <row r="11" spans="1:22" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A11" s="208"/>
       <c r="B11" s="106" t="s">
         <v>133</v>
       </c>
@@ -15414,7 +15405,7 @@
         <v>135</v>
       </c>
       <c r="H11" s="120" t="s">
-        <v>87</v>
+        <v>934</v>
       </c>
       <c r="I11" s="121" t="s">
         <v>88</v>
@@ -15456,8 +15447,8 @@
       </c>
       <c r="U11" s="188"/>
     </row>
-    <row r="12" spans="1:22" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A12" s="194"/>
+    <row r="12" spans="1:22" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A12" s="208"/>
       <c r="B12" s="106" t="s">
         <v>138</v>
       </c>
@@ -15517,8 +15508,8 @@
       </c>
       <c r="U12" s="188"/>
     </row>
-    <row r="13" spans="1:22" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A13" s="194"/>
+    <row r="13" spans="1:22" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A13" s="208"/>
       <c r="B13" s="106" t="s">
         <v>142</v>
       </c>
@@ -15578,7 +15569,7 @@
       </c>
       <c r="U13" s="188"/>
     </row>
-    <row r="14" spans="1:22" s="122" customFormat="1" ht="19.95" customHeight="1">
+    <row r="14" spans="1:22" s="122" customFormat="1" ht="20" customHeight="1">
       <c r="A14" s="134"/>
       <c r="B14" s="135"/>
       <c r="C14" s="136"/>
@@ -15603,8 +15594,8 @@
       <c r="T14" s="138"/>
       <c r="U14" s="136"/>
     </row>
-    <row r="15" spans="1:22" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A15" s="194" t="s">
+    <row r="15" spans="1:22" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A15" s="208" t="s">
         <v>146</v>
       </c>
       <c r="B15" s="106" t="s">
@@ -15662,8 +15653,8 @@
       </c>
       <c r="U15" s="116"/>
     </row>
-    <row r="16" spans="1:22" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A16" s="194"/>
+    <row r="16" spans="1:22" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A16" s="208"/>
       <c r="B16" s="106" t="s">
         <v>97</v>
       </c>
@@ -15719,8 +15710,8 @@
       </c>
       <c r="U16" s="116"/>
     </row>
-    <row r="17" spans="1:21" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A17" s="194"/>
+    <row r="17" spans="1:21" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A17" s="208"/>
       <c r="B17" s="106" t="s">
         <v>106</v>
       </c>
@@ -15776,8 +15767,8 @@
       </c>
       <c r="U17" s="116"/>
     </row>
-    <row r="18" spans="1:21" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A18" s="194"/>
+    <row r="18" spans="1:21" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A18" s="208"/>
       <c r="B18" s="106" t="s">
         <v>109</v>
       </c>
@@ -15833,8 +15824,8 @@
       </c>
       <c r="U18" s="116"/>
     </row>
-    <row r="19" spans="1:21" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A19" s="194"/>
+    <row r="19" spans="1:21" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A19" s="208"/>
       <c r="B19" s="106" t="s">
         <v>112</v>
       </c>
@@ -15890,8 +15881,8 @@
       </c>
       <c r="U19" s="116"/>
     </row>
-    <row r="20" spans="1:21" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A20" s="194"/>
+    <row r="20" spans="1:21" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A20" s="208"/>
       <c r="B20" s="106" t="s">
         <v>120</v>
       </c>
@@ -15947,8 +15938,8 @@
       </c>
       <c r="U20" s="116"/>
     </row>
-    <row r="21" spans="1:21" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A21" s="194"/>
+    <row r="21" spans="1:21" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A21" s="208"/>
       <c r="B21" s="106" t="s">
         <v>178</v>
       </c>
@@ -16004,8 +15995,8 @@
       </c>
       <c r="U21" s="116"/>
     </row>
-    <row r="22" spans="1:21" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A22" s="194"/>
+    <row r="22" spans="1:21" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A22" s="208"/>
       <c r="B22" s="106" t="s">
         <v>126</v>
       </c>
@@ -16061,8 +16052,8 @@
       </c>
       <c r="U22" s="116"/>
     </row>
-    <row r="23" spans="1:21" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A23" s="194"/>
+    <row r="23" spans="1:21" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A23" s="208"/>
       <c r="B23" s="106" t="s">
         <v>130</v>
       </c>
@@ -16118,8 +16109,8 @@
       </c>
       <c r="U23" s="116"/>
     </row>
-    <row r="24" spans="1:21" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A24" s="194"/>
+    <row r="24" spans="1:21" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A24" s="208"/>
       <c r="B24" s="106" t="s">
         <v>133</v>
       </c>
@@ -16175,8 +16166,8 @@
       </c>
       <c r="U24" s="116"/>
     </row>
-    <row r="25" spans="1:21" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A25" s="194"/>
+    <row r="25" spans="1:21" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A25" s="208"/>
       <c r="B25" s="106" t="s">
         <v>138</v>
       </c>
@@ -16232,8 +16223,8 @@
       </c>
       <c r="U25" s="116"/>
     </row>
-    <row r="26" spans="1:21" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A26" s="194"/>
+    <row r="26" spans="1:21" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A26" s="208"/>
       <c r="B26" s="106" t="s">
         <v>142</v>
       </c>
@@ -16289,8 +16280,8 @@
       </c>
       <c r="U26" s="116"/>
     </row>
-    <row r="27" spans="1:21" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A27" s="194"/>
+    <row r="27" spans="1:21" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A27" s="208"/>
       <c r="B27" s="106" t="s">
         <v>202</v>
       </c>
@@ -16346,8 +16337,8 @@
       </c>
       <c r="U27" s="116"/>
     </row>
-    <row r="28" spans="1:21" s="122" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A28" s="194"/>
+    <row r="28" spans="1:21" s="122" customFormat="1" ht="20" customHeight="1">
+      <c r="A28" s="208"/>
       <c r="B28" s="106" t="s">
         <v>206</v>
       </c>
@@ -16423,24 +16414,24 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.4140625" customWidth="1"/>
+    <col min="3" max="3" width="13.58203125" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="47.5546875" customWidth="1"/>
-    <col min="9" max="9" width="104.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.58203125" customWidth="1"/>
+    <col min="8" max="8" width="47.58203125" customWidth="1"/>
+    <col min="9" max="9" width="104.58203125" customWidth="1"/>
+    <col min="10" max="10" width="11.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.4">
+    <row r="1" spans="1:15">
       <c r="A1" s="87" t="s">
         <v>212</v>
       </c>
@@ -16453,7 +16444,7 @@
         <v>云调采集机-1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.4">
+    <row r="2" spans="1:15">
       <c r="A2" s="87" t="s">
         <v>213</v>
       </c>
@@ -16471,8 +16462,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A6" s="196" t="s">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A6" s="209" t="s">
         <v>215</v>
       </c>
       <c r="B6" s="89" t="s">
@@ -16501,8 +16492,8 @@
       <c r="N6" s="102"/>
       <c r="O6" s="102"/>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A7" s="196"/>
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A7" s="209"/>
       <c r="B7" s="90">
         <v>2</v>
       </c>
@@ -16529,8 +16520,8 @@
       <c r="N7" s="102"/>
       <c r="O7" s="102"/>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A8" s="196"/>
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A8" s="209"/>
       <c r="B8" s="90">
         <v>3</v>
       </c>
@@ -16557,8 +16548,8 @@
       <c r="N8" s="102"/>
       <c r="O8" s="102"/>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A9" s="196"/>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A9" s="209"/>
       <c r="B9" s="90">
         <v>3</v>
       </c>
@@ -16588,8 +16579,8 @@
       <c r="N9" s="102"/>
       <c r="O9" s="102"/>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A10" s="196"/>
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A10" s="209"/>
       <c r="B10" s="90">
         <v>4</v>
       </c>
@@ -16619,8 +16610,8 @@
       <c r="N10" s="102"/>
       <c r="O10" s="102"/>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A11" s="196"/>
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A11" s="209"/>
       <c r="B11" s="90">
         <v>4</v>
       </c>
@@ -16647,8 +16638,8 @@
       <c r="N11" s="102"/>
       <c r="O11" s="102"/>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A12" s="196"/>
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A12" s="209"/>
       <c r="B12" s="90">
         <v>4</v>
       </c>
@@ -16678,8 +16669,8 @@
       <c r="N12" s="102"/>
       <c r="O12" s="102"/>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A13" s="196"/>
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A13" s="209"/>
       <c r="B13" s="90">
         <v>4</v>
       </c>
@@ -16709,8 +16700,8 @@
       <c r="N13" s="102"/>
       <c r="O13" s="102"/>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A14" s="196"/>
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A14" s="209"/>
       <c r="B14" s="90">
         <v>5</v>
       </c>
@@ -16737,8 +16728,8 @@
       <c r="N14" s="102"/>
       <c r="O14" s="102"/>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A15" s="196"/>
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A15" s="209"/>
       <c r="B15" s="90">
         <v>6</v>
       </c>
@@ -16765,8 +16756,8 @@
       <c r="N15" s="102"/>
       <c r="O15" s="102"/>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A16" s="196"/>
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A16" s="209"/>
       <c r="B16" s="90">
         <v>7</v>
       </c>
@@ -16793,8 +16784,8 @@
       <c r="N16" s="102"/>
       <c r="O16" s="102"/>
     </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A17" s="196"/>
+    <row r="17" spans="1:15" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A17" s="209"/>
       <c r="B17" s="92">
         <v>8</v>
       </c>
@@ -16821,7 +16812,7 @@
       <c r="N17" s="102"/>
       <c r="O17" s="102"/>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" ht="16.95" customHeight="1">
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="17" customHeight="1">
       <c r="A18" s="93"/>
       <c r="B18" s="94"/>
       <c r="C18" s="94"/>
@@ -16837,12 +16828,12 @@
       <c r="N18" s="102"/>
       <c r="O18" s="102"/>
     </row>
-    <row r="19" spans="1:15" ht="14.4">
+    <row r="19" spans="1:15">
       <c r="A19" s="95" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="14.4">
+    <row r="20" spans="1:15">
       <c r="A20" s="96" t="s">
         <v>248</v>
       </c>
@@ -16899,20 +16890,20 @@
       </c>
       <c r="C34" s="94"/>
     </row>
-    <row r="35" spans="1:8" ht="175.95" customHeight="1">
+    <row r="35" spans="1:8" ht="176" customHeight="1">
       <c r="A35" s="98" t="s">
         <v>258</v>
       </c>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="211" t="s">
         <v>259</v>
       </c>
-      <c r="C35" s="197"/>
-      <c r="D35" s="197"/>
-      <c r="E35" s="197" t="s">
+      <c r="C35" s="211"/>
+      <c r="D35" s="211"/>
+      <c r="E35" s="211" t="s">
         <v>260</v>
       </c>
-      <c r="F35" s="197"/>
-      <c r="G35" s="197"/>
+      <c r="F35" s="211"/>
+      <c r="G35" s="211"/>
       <c r="H35" s="99" t="s">
         <v>10</v>
       </c>
@@ -16921,48 +16912,48 @@
       <c r="A36" s="100" t="s">
         <v>261</v>
       </c>
-      <c r="B36" s="195" t="s">
+      <c r="B36" s="210" t="s">
         <v>262</v>
       </c>
-      <c r="C36" s="195"/>
-      <c r="D36" s="195"/>
-      <c r="E36" s="195" t="s">
+      <c r="C36" s="210"/>
+      <c r="D36" s="210"/>
+      <c r="E36" s="210" t="s">
         <v>263</v>
       </c>
-      <c r="F36" s="195"/>
-      <c r="G36" s="195"/>
+      <c r="F36" s="210"/>
+      <c r="G36" s="210"/>
       <c r="H36" s="101"/>
     </row>
-    <row r="37" spans="1:8" ht="211.95" customHeight="1">
+    <row r="37" spans="1:8" ht="212" customHeight="1">
       <c r="A37" s="100" t="s">
         <v>264</v>
       </c>
-      <c r="B37" s="195" t="s">
+      <c r="B37" s="210" t="s">
         <v>265</v>
       </c>
-      <c r="C37" s="195"/>
-      <c r="D37" s="195"/>
-      <c r="E37" s="195" t="s">
+      <c r="C37" s="210"/>
+      <c r="D37" s="210"/>
+      <c r="E37" s="210" t="s">
         <v>266</v>
       </c>
-      <c r="F37" s="195"/>
-      <c r="G37" s="195"/>
+      <c r="F37" s="210"/>
+      <c r="G37" s="210"/>
       <c r="H37" s="101"/>
     </row>
-    <row r="38" spans="1:8" ht="157.94999999999999" customHeight="1">
+    <row r="38" spans="1:8" ht="158" customHeight="1">
       <c r="A38" s="100" t="s">
         <v>267</v>
       </c>
-      <c r="B38" s="195" t="s">
+      <c r="B38" s="210" t="s">
         <v>268</v>
       </c>
-      <c r="C38" s="195"/>
-      <c r="D38" s="195"/>
-      <c r="E38" s="195" t="s">
+      <c r="C38" s="210"/>
+      <c r="D38" s="210"/>
+      <c r="E38" s="210" t="s">
         <v>269</v>
       </c>
-      <c r="F38" s="195"/>
-      <c r="G38" s="195"/>
+      <c r="F38" s="210"/>
+      <c r="G38" s="210"/>
       <c r="H38" s="101" t="s">
         <v>270</v>
       </c>
@@ -16971,103 +16962,113 @@
       <c r="A39" s="100" t="s">
         <v>267</v>
       </c>
-      <c r="B39" s="195" t="s">
+      <c r="B39" s="210" t="s">
         <v>271</v>
       </c>
-      <c r="C39" s="195"/>
-      <c r="D39" s="195"/>
-      <c r="E39" s="195" t="s">
+      <c r="C39" s="210"/>
+      <c r="D39" s="210"/>
+      <c r="E39" s="210" t="s">
         <v>272</v>
       </c>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
+      <c r="F39" s="210"/>
+      <c r="G39" s="210"/>
       <c r="H39" s="101" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="92.7" customHeight="1">
+    <row r="40" spans="1:8" ht="92.75" customHeight="1">
       <c r="A40" s="100" t="s">
         <v>274</v>
       </c>
-      <c r="B40" s="195" t="s">
+      <c r="B40" s="210" t="s">
         <v>275</v>
       </c>
-      <c r="C40" s="195"/>
-      <c r="D40" s="195"/>
-      <c r="E40" s="195" t="s">
+      <c r="C40" s="210"/>
+      <c r="D40" s="210"/>
+      <c r="E40" s="210" t="s">
         <v>276</v>
       </c>
-      <c r="F40" s="195"/>
-      <c r="G40" s="195"/>
+      <c r="F40" s="210"/>
+      <c r="G40" s="210"/>
       <c r="H40" s="101"/>
     </row>
-    <row r="41" spans="1:8" ht="132.6" customHeight="1">
+    <row r="41" spans="1:8" ht="132.65" customHeight="1">
       <c r="A41" s="100" t="s">
         <v>277</v>
       </c>
-      <c r="B41" s="195" t="s">
+      <c r="B41" s="210" t="s">
         <v>278</v>
       </c>
-      <c r="C41" s="195"/>
-      <c r="D41" s="195"/>
-      <c r="E41" s="195" t="s">
+      <c r="C41" s="210"/>
+      <c r="D41" s="210"/>
+      <c r="E41" s="210" t="s">
         <v>279</v>
       </c>
-      <c r="F41" s="195"/>
-      <c r="G41" s="195"/>
+      <c r="F41" s="210"/>
+      <c r="G41" s="210"/>
       <c r="H41" s="101"/>
     </row>
-    <row r="42" spans="1:8" ht="168.45" customHeight="1">
+    <row r="42" spans="1:8" ht="168.5" customHeight="1">
       <c r="A42" s="100" t="s">
         <v>280</v>
       </c>
-      <c r="B42" s="195" t="s">
+      <c r="B42" s="210" t="s">
         <v>281</v>
       </c>
-      <c r="C42" s="195"/>
-      <c r="D42" s="195"/>
-      <c r="E42" s="195" t="s">
+      <c r="C42" s="210"/>
+      <c r="D42" s="210"/>
+      <c r="E42" s="210" t="s">
         <v>282</v>
       </c>
-      <c r="F42" s="195"/>
-      <c r="G42" s="195"/>
+      <c r="F42" s="210"/>
+      <c r="G42" s="210"/>
       <c r="H42" s="101"/>
     </row>
-    <row r="43" spans="1:8" ht="168.45" customHeight="1">
+    <row r="43" spans="1:8" ht="168.5" customHeight="1">
       <c r="A43" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="195" t="s">
+      <c r="B43" s="210" t="s">
         <v>283</v>
       </c>
-      <c r="C43" s="195"/>
-      <c r="D43" s="195"/>
-      <c r="E43" s="195" t="s">
+      <c r="C43" s="210"/>
+      <c r="D43" s="210"/>
+      <c r="E43" s="210" t="s">
         <v>284</v>
       </c>
-      <c r="F43" s="195"/>
-      <c r="G43" s="195"/>
+      <c r="F43" s="210"/>
+      <c r="G43" s="210"/>
       <c r="H43" s="101"/>
     </row>
-    <row r="44" spans="1:8" ht="67.2" customHeight="1">
+    <row r="44" spans="1:8" ht="67.25" customHeight="1">
       <c r="A44" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="B44" s="195" t="s">
+      <c r="B44" s="210" t="s">
         <v>286</v>
       </c>
-      <c r="C44" s="195"/>
-      <c r="D44" s="195"/>
-      <c r="E44" s="195" t="s">
+      <c r="C44" s="210"/>
+      <c r="D44" s="210"/>
+      <c r="E44" s="210" t="s">
         <v>287</v>
       </c>
-      <c r="F44" s="195"/>
-      <c r="G44" s="195"/>
+      <c r="F44" s="210"/>
+      <c r="G44" s="210"/>
       <c r="H44" s="88"/>
     </row>
   </sheetData>
   <autoFilter ref="B6:G17" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="21">
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
     <mergeCell ref="A6:A17"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="E41:G41"/>
@@ -17079,16 +17080,6 @@
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="E37:G37"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <hyperlinks>
@@ -17110,28 +17101,28 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B41" sqref="B41"/>
+      <selection pane="topRight" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="50" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" style="50" customWidth="1"/>
-    <col min="3" max="4" width="42.5546875" style="50" customWidth="1"/>
-    <col min="5" max="5" width="48.44140625" style="53" customWidth="1"/>
+    <col min="1" max="1" width="5.58203125" style="50" customWidth="1"/>
+    <col min="2" max="2" width="29.4140625" style="50" customWidth="1"/>
+    <col min="3" max="4" width="42.58203125" style="50" customWidth="1"/>
+    <col min="5" max="5" width="48.4140625" style="53" customWidth="1"/>
     <col min="6" max="6" width="25" style="50" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" style="50" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" style="51" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" style="51" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="76" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" style="76" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="55"/>
+    <col min="7" max="7" width="25.4140625" style="50" customWidth="1"/>
+    <col min="8" max="8" width="9.58203125" style="51" customWidth="1"/>
+    <col min="9" max="9" width="21.58203125" style="51" customWidth="1"/>
+    <col min="10" max="10" width="14.4140625" style="76" customWidth="1"/>
+    <col min="11" max="11" width="10.4140625" style="76" customWidth="1"/>
+    <col min="12" max="12" width="7.4140625" customWidth="1"/>
+    <col min="13" max="13" width="9.08203125" style="55"/>
     <col min="17" max="17" width="9" style="52" customWidth="1"/>
-    <col min="18" max="18" width="18.44140625" customWidth="1"/>
+    <col min="18" max="18" width="18.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="74" customFormat="1" ht="28.8">
+    <row r="1" spans="1:18" s="74" customFormat="1" ht="28">
       <c r="A1" s="77" t="s">
         <v>63</v>
       </c>
@@ -17187,7 +17178,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="75" customFormat="1" ht="11.7" customHeight="1">
+    <row r="2" spans="1:18" s="75" customFormat="1" ht="11.75" customHeight="1">
       <c r="A2" s="80">
         <v>1</v>
       </c>
@@ -17246,7 +17237,7 @@
       </c>
       <c r="R2" s="72"/>
     </row>
-    <row r="3" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="3" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A3" s="80">
         <v>2</v>
       </c>
@@ -17305,7 +17296,7 @@
       </c>
       <c r="R3" s="72"/>
     </row>
-    <row r="4" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="4" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A4" s="80">
         <v>3</v>
       </c>
@@ -17364,7 +17355,7 @@
       </c>
       <c r="R4" s="72"/>
     </row>
-    <row r="5" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="5" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A5" s="80">
         <v>4</v>
       </c>
@@ -17423,7 +17414,7 @@
       </c>
       <c r="R5" s="72"/>
     </row>
-    <row r="6" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="6" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A6" s="80">
         <v>5</v>
       </c>
@@ -17482,7 +17473,7 @@
       </c>
       <c r="R6" s="72"/>
     </row>
-    <row r="7" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="7" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A7" s="80">
         <v>6</v>
       </c>
@@ -17541,7 +17532,7 @@
       </c>
       <c r="R7" s="72"/>
     </row>
-    <row r="8" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="8" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A8" s="80">
         <v>7</v>
       </c>
@@ -17600,7 +17591,7 @@
       </c>
       <c r="R8" s="72"/>
     </row>
-    <row r="9" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="9" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A9" s="80">
         <v>8</v>
       </c>
@@ -17659,7 +17650,7 @@
       </c>
       <c r="R9" s="72"/>
     </row>
-    <row r="10" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="10" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A10" s="80">
         <v>9</v>
       </c>
@@ -17718,7 +17709,7 @@
       </c>
       <c r="R10" s="72"/>
     </row>
-    <row r="11" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="11" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A11" s="80">
         <v>10</v>
       </c>
@@ -17777,7 +17768,7 @@
       </c>
       <c r="R11" s="72"/>
     </row>
-    <row r="12" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="12" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A12" s="80">
         <v>11</v>
       </c>
@@ -17836,7 +17827,7 @@
       </c>
       <c r="R12" s="72"/>
     </row>
-    <row r="13" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="13" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A13" s="80">
         <v>12</v>
       </c>
@@ -17895,7 +17886,7 @@
       </c>
       <c r="R13" s="72"/>
     </row>
-    <row r="14" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="14" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A14" s="80">
         <v>13</v>
       </c>
@@ -17954,7 +17945,7 @@
       </c>
       <c r="R14" s="72"/>
     </row>
-    <row r="15" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="15" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A15" s="80">
         <v>14</v>
       </c>
@@ -18013,7 +18004,7 @@
       </c>
       <c r="R15" s="72"/>
     </row>
-    <row r="16" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="16" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A16" s="80">
         <v>15</v>
       </c>
@@ -18072,7 +18063,7 @@
       </c>
       <c r="R16" s="72"/>
     </row>
-    <row r="17" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="17" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A17" s="80">
         <v>16</v>
       </c>
@@ -18131,7 +18122,7 @@
       </c>
       <c r="R17" s="72"/>
     </row>
-    <row r="18" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="18" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A18" s="80">
         <v>17</v>
       </c>
@@ -18190,7 +18181,7 @@
       </c>
       <c r="R18" s="72"/>
     </row>
-    <row r="19" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="19" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A19" s="80">
         <v>18</v>
       </c>
@@ -18249,7 +18240,7 @@
       </c>
       <c r="R19" s="72"/>
     </row>
-    <row r="20" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="20" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A20" s="80">
         <v>19</v>
       </c>
@@ -18308,7 +18299,7 @@
       </c>
       <c r="R20" s="72"/>
     </row>
-    <row r="21" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="21" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A21" s="80">
         <v>20</v>
       </c>
@@ -18367,7 +18358,7 @@
       </c>
       <c r="R21" s="72"/>
     </row>
-    <row r="22" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="22" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A22" s="80">
         <v>21</v>
       </c>
@@ -18426,7 +18417,7 @@
       </c>
       <c r="R22" s="72"/>
     </row>
-    <row r="23" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="23" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A23" s="80">
         <v>22</v>
       </c>
@@ -18485,7 +18476,7 @@
       </c>
       <c r="R23" s="72"/>
     </row>
-    <row r="24" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="24" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A24" s="80">
         <v>23</v>
       </c>
@@ -18544,7 +18535,7 @@
       </c>
       <c r="R24" s="72"/>
     </row>
-    <row r="25" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="25" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A25" s="80">
         <v>24</v>
       </c>
@@ -18603,7 +18594,7 @@
       </c>
       <c r="R25" s="72"/>
     </row>
-    <row r="26" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="26" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A26" s="80">
         <v>25</v>
       </c>
@@ -18662,7 +18653,7 @@
       </c>
       <c r="R26" s="72"/>
     </row>
-    <row r="27" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="27" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A27" s="80">
         <v>26</v>
       </c>
@@ -18721,7 +18712,7 @@
       </c>
       <c r="R27" s="72"/>
     </row>
-    <row r="28" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="28" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A28" s="80">
         <v>27</v>
       </c>
@@ -18780,7 +18771,7 @@
       </c>
       <c r="R28" s="72"/>
     </row>
-    <row r="29" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="29" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A29" s="80">
         <v>28</v>
       </c>
@@ -18839,7 +18830,7 @@
       </c>
       <c r="R29" s="72"/>
     </row>
-    <row r="30" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="30" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A30" s="80">
         <v>29</v>
       </c>
@@ -18898,7 +18889,7 @@
       </c>
       <c r="R30" s="72"/>
     </row>
-    <row r="31" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="31" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A31" s="80">
         <v>30</v>
       </c>
@@ -18957,7 +18948,7 @@
       </c>
       <c r="R31" s="72"/>
     </row>
-    <row r="32" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="32" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A32" s="80">
         <v>31</v>
       </c>
@@ -19016,7 +19007,7 @@
       </c>
       <c r="R32" s="72"/>
     </row>
-    <row r="33" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="33" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A33" s="80">
         <v>32</v>
       </c>
@@ -19075,7 +19066,7 @@
       </c>
       <c r="R33" s="72"/>
     </row>
-    <row r="34" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="34" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A34" s="80">
         <v>33</v>
       </c>
@@ -19134,7 +19125,7 @@
       </c>
       <c r="R34" s="72"/>
     </row>
-    <row r="35" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="35" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A35" s="80">
         <v>34</v>
       </c>
@@ -19193,7 +19184,7 @@
       </c>
       <c r="R35" s="72"/>
     </row>
-    <row r="36" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="36" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A36" s="80">
         <v>35</v>
       </c>
@@ -19252,7 +19243,7 @@
       </c>
       <c r="R36" s="72"/>
     </row>
-    <row r="37" spans="1:18" s="75" customFormat="1" ht="10.8">
+    <row r="37" spans="1:18" s="75" customFormat="1" ht="12">
       <c r="A37" s="80">
         <v>36</v>
       </c>
@@ -19327,40 +19318,40 @@
   <dimension ref="A1:IN49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="50" customWidth="1"/>
+    <col min="1" max="1" width="3.58203125" style="50" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" style="51" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" style="50" customWidth="1"/>
+    <col min="3" max="3" width="35.58203125" style="50" customWidth="1"/>
     <col min="4" max="4" width="37" style="50" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" style="52" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="53" customWidth="1"/>
     <col min="7" max="7" width="10" style="54" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="12.44140625" style="54" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="10.5546875" style="54" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="14.5546875" style="54" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="12.4140625" style="54" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10.58203125" style="54" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="14.58203125" style="54" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="7.6640625" style="56" customWidth="1"/>
-    <col min="12" max="12" width="20.44140625" style="57" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="20.4140625" style="57" customWidth="1" outlineLevel="1"/>
     <col min="13" max="13" width="14.6640625" style="58" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="12.33203125" style="50" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" style="54" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" style="54" customWidth="1"/>
+    <col min="15" max="15" width="10.4140625" style="54" customWidth="1"/>
+    <col min="16" max="16" width="11.08203125" style="54" customWidth="1"/>
     <col min="17" max="17" width="6" style="54" customWidth="1"/>
-    <col min="18" max="18" width="13.44140625" style="54" customWidth="1"/>
+    <col min="18" max="18" width="13.4140625" style="54" customWidth="1"/>
     <col min="19" max="19" width="6.6640625" style="54" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="54" customWidth="1"/>
+    <col min="20" max="20" width="6.4140625" style="54" customWidth="1"/>
     <col min="21" max="21" width="7.6640625" style="54" customWidth="1"/>
     <col min="22" max="22" width="4" style="55" customWidth="1"/>
-    <col min="23" max="23" width="5.5546875" style="54" customWidth="1"/>
+    <col min="23" max="23" width="5.58203125" style="54" customWidth="1"/>
     <col min="24" max="24" width="20" style="50" customWidth="1"/>
-    <col min="25" max="25" width="11.5546875" style="50" customWidth="1"/>
+    <col min="25" max="25" width="11.58203125" style="50" customWidth="1"/>
     <col min="26" max="248" width="9" style="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:248" s="49" customFormat="1" ht="28.8">
+    <row r="1" spans="1:248" s="49" customFormat="1" ht="28">
       <c r="A1" s="59" t="s">
         <v>63</v>
       </c>
@@ -19658,7 +19649,7 @@
       <c r="IM1" s="144"/>
       <c r="IN1" s="144"/>
     </row>
-    <row r="2" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="2" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A2" s="62">
         <v>1</v>
       </c>
@@ -19947,7 +19938,7 @@
       <c r="IM2" s="73"/>
       <c r="IN2" s="73"/>
     </row>
-    <row r="3" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="3" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A3" s="62">
         <v>2</v>
       </c>
@@ -20236,7 +20227,7 @@
       <c r="IM3" s="73"/>
       <c r="IN3" s="73"/>
     </row>
-    <row r="4" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="4" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A4" s="62">
         <v>3</v>
       </c>
@@ -20525,7 +20516,7 @@
       <c r="IM4" s="73"/>
       <c r="IN4" s="73"/>
     </row>
-    <row r="5" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="5" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A5" s="62">
         <v>4</v>
       </c>
@@ -20814,7 +20805,7 @@
       <c r="IM5" s="73"/>
       <c r="IN5" s="73"/>
     </row>
-    <row r="6" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="6" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A6" s="62">
         <v>5</v>
       </c>
@@ -21103,7 +21094,7 @@
       <c r="IM6" s="73"/>
       <c r="IN6" s="73"/>
     </row>
-    <row r="7" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="7" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A7" s="62">
         <v>6</v>
       </c>
@@ -21392,7 +21383,7 @@
       <c r="IM7" s="73"/>
       <c r="IN7" s="73"/>
     </row>
-    <row r="8" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="8" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A8" s="62">
         <v>7</v>
       </c>
@@ -21681,7 +21672,7 @@
       <c r="IM8" s="73"/>
       <c r="IN8" s="73"/>
     </row>
-    <row r="9" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="9" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A9" s="62">
         <v>8</v>
       </c>
@@ -21970,7 +21961,7 @@
       <c r="IM9" s="73"/>
       <c r="IN9" s="73"/>
     </row>
-    <row r="10" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="10" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A10" s="62">
         <v>9</v>
       </c>
@@ -22259,7 +22250,7 @@
       <c r="IM10" s="73"/>
       <c r="IN10" s="73"/>
     </row>
-    <row r="11" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="11" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A11" s="62">
         <v>10</v>
       </c>
@@ -22548,7 +22539,7 @@
       <c r="IM11" s="73"/>
       <c r="IN11" s="73"/>
     </row>
-    <row r="12" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="12" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A12" s="62">
         <v>11</v>
       </c>
@@ -22837,7 +22828,7 @@
       <c r="IM12" s="73"/>
       <c r="IN12" s="73"/>
     </row>
-    <row r="13" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="13" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A13" s="62">
         <v>12</v>
       </c>
@@ -23126,7 +23117,7 @@
       <c r="IM13" s="73"/>
       <c r="IN13" s="73"/>
     </row>
-    <row r="14" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="14" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A14" s="62">
         <v>13</v>
       </c>
@@ -23415,7 +23406,7 @@
       <c r="IM14" s="73"/>
       <c r="IN14" s="73"/>
     </row>
-    <row r="15" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="15" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A15" s="62">
         <v>14</v>
       </c>
@@ -23704,7 +23695,7 @@
       <c r="IM15" s="73"/>
       <c r="IN15" s="73"/>
     </row>
-    <row r="16" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="16" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A16" s="62">
         <v>15</v>
       </c>
@@ -23993,7 +23984,7 @@
       <c r="IM16" s="73"/>
       <c r="IN16" s="73"/>
     </row>
-    <row r="17" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="17" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A17" s="62">
         <v>16</v>
       </c>
@@ -24282,7 +24273,7 @@
       <c r="IM17" s="73"/>
       <c r="IN17" s="73"/>
     </row>
-    <row r="18" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="18" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A18" s="62">
         <v>17</v>
       </c>
@@ -24571,7 +24562,7 @@
       <c r="IM18" s="73"/>
       <c r="IN18" s="73"/>
     </row>
-    <row r="19" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="19" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A19" s="62">
         <v>18</v>
       </c>
@@ -24860,7 +24851,7 @@
       <c r="IM19" s="73"/>
       <c r="IN19" s="73"/>
     </row>
-    <row r="20" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="20" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A20" s="62">
         <v>19</v>
       </c>
@@ -25149,7 +25140,7 @@
       <c r="IM20" s="73"/>
       <c r="IN20" s="73"/>
     </row>
-    <row r="21" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="21" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A21" s="62">
         <v>20</v>
       </c>
@@ -25438,7 +25429,7 @@
       <c r="IM21" s="73"/>
       <c r="IN21" s="73"/>
     </row>
-    <row r="22" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="22" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A22" s="62">
         <v>21</v>
       </c>
@@ -25727,7 +25718,7 @@
       <c r="IM22" s="73"/>
       <c r="IN22" s="73"/>
     </row>
-    <row r="23" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="23" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A23" s="62">
         <v>22</v>
       </c>
@@ -26016,7 +26007,7 @@
       <c r="IM23" s="73"/>
       <c r="IN23" s="73"/>
     </row>
-    <row r="24" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="24" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A24" s="62">
         <v>23</v>
       </c>
@@ -26305,7 +26296,7 @@
       <c r="IM24" s="73"/>
       <c r="IN24" s="73"/>
     </row>
-    <row r="25" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="25" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A25" s="62">
         <v>24</v>
       </c>
@@ -26594,7 +26585,7 @@
       <c r="IM25" s="73"/>
       <c r="IN25" s="73"/>
     </row>
-    <row r="26" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="26" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A26" s="62">
         <v>25</v>
       </c>
@@ -26883,7 +26874,7 @@
       <c r="IM26" s="73"/>
       <c r="IN26" s="73"/>
     </row>
-    <row r="27" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="27" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A27" s="62">
         <v>26</v>
       </c>
@@ -27172,7 +27163,7 @@
       <c r="IM27" s="73"/>
       <c r="IN27" s="73"/>
     </row>
-    <row r="28" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="28" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A28" s="62">
         <v>27</v>
       </c>
@@ -27461,7 +27452,7 @@
       <c r="IM28" s="73"/>
       <c r="IN28" s="73"/>
     </row>
-    <row r="29" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="29" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A29" s="62">
         <v>28</v>
       </c>
@@ -27750,7 +27741,7 @@
       <c r="IM29" s="73"/>
       <c r="IN29" s="73"/>
     </row>
-    <row r="30" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="30" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A30" s="62">
         <v>29</v>
       </c>
@@ -28039,7 +28030,7 @@
       <c r="IM30" s="73"/>
       <c r="IN30" s="73"/>
     </row>
-    <row r="31" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="31" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A31" s="62">
         <v>30</v>
       </c>
@@ -28328,7 +28319,7 @@
       <c r="IM31" s="73"/>
       <c r="IN31" s="73"/>
     </row>
-    <row r="32" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="32" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A32" s="62">
         <v>31</v>
       </c>
@@ -28617,7 +28608,7 @@
       <c r="IM32" s="73"/>
       <c r="IN32" s="73"/>
     </row>
-    <row r="33" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="33" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A33" s="62">
         <v>32</v>
       </c>
@@ -28906,7 +28897,7 @@
       <c r="IM33" s="73"/>
       <c r="IN33" s="73"/>
     </row>
-    <row r="34" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="34" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A34" s="62">
         <v>33</v>
       </c>
@@ -29195,7 +29186,7 @@
       <c r="IM34" s="73"/>
       <c r="IN34" s="73"/>
     </row>
-    <row r="35" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="35" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A35" s="62">
         <v>34</v>
       </c>
@@ -29484,7 +29475,7 @@
       <c r="IM35" s="73"/>
       <c r="IN35" s="73"/>
     </row>
-    <row r="36" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="36" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A36" s="62">
         <v>35</v>
       </c>
@@ -29773,7 +29764,7 @@
       <c r="IM36" s="73"/>
       <c r="IN36" s="73"/>
     </row>
-    <row r="37" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="37" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A37" s="62">
         <v>36</v>
       </c>
@@ -30062,7 +30053,7 @@
       <c r="IM37" s="73"/>
       <c r="IN37" s="73"/>
     </row>
-    <row r="38" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="38" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A38" s="62">
         <v>37</v>
       </c>
@@ -30351,7 +30342,7 @@
       <c r="IM38" s="73"/>
       <c r="IN38" s="73"/>
     </row>
-    <row r="39" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="39" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A39" s="62">
         <v>38</v>
       </c>
@@ -30640,7 +30631,7 @@
       <c r="IM39" s="73"/>
       <c r="IN39" s="73"/>
     </row>
-    <row r="40" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="40" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A40" s="62">
         <v>39</v>
       </c>
@@ -30929,7 +30920,7 @@
       <c r="IM40" s="73"/>
       <c r="IN40" s="73"/>
     </row>
-    <row r="41" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="41" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A41" s="62">
         <v>40</v>
       </c>
@@ -31218,7 +31209,7 @@
       <c r="IM41" s="73"/>
       <c r="IN41" s="73"/>
     </row>
-    <row r="42" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="42" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A42" s="62">
         <v>41</v>
       </c>
@@ -31507,7 +31498,7 @@
       <c r="IM42" s="73"/>
       <c r="IN42" s="73"/>
     </row>
-    <row r="43" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="43" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A43" s="62">
         <v>42</v>
       </c>
@@ -31796,7 +31787,7 @@
       <c r="IM43" s="73"/>
       <c r="IN43" s="73"/>
     </row>
-    <row r="44" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="44" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A44" s="62">
         <v>43</v>
       </c>
@@ -32085,7 +32076,7 @@
       <c r="IM44" s="73"/>
       <c r="IN44" s="73"/>
     </row>
-    <row r="45" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="45" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A45" s="62">
         <v>44</v>
       </c>
@@ -32374,7 +32365,7 @@
       <c r="IM45" s="73"/>
       <c r="IN45" s="73"/>
     </row>
-    <row r="46" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="46" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A46" s="62">
         <v>45</v>
       </c>
@@ -32663,7 +32654,7 @@
       <c r="IM46" s="73"/>
       <c r="IN46" s="73"/>
     </row>
-    <row r="47" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="47" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A47" s="62">
         <v>46</v>
       </c>
@@ -32952,7 +32943,7 @@
       <c r="IM47" s="73"/>
       <c r="IN47" s="73"/>
     </row>
-    <row r="48" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="48" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A48" s="62">
         <v>47</v>
       </c>
@@ -33241,7 +33232,7 @@
       <c r="IM48" s="73"/>
       <c r="IN48" s="73"/>
     </row>
-    <row r="49" spans="1:248" s="8" customFormat="1" ht="11.4">
+    <row r="49" spans="1:248" s="8" customFormat="1" ht="12">
       <c r="A49" s="62">
         <v>48</v>
       </c>
@@ -33546,21 +33537,21 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="11" customWidth="1"/>
     <col min="2" max="2" width="36" style="11" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="19.58203125" style="11" customWidth="1"/>
     <col min="5" max="5" width="20" style="11" customWidth="1"/>
     <col min="6" max="6" width="11" style="11" customWidth="1"/>
     <col min="7" max="7" width="12" style="11" customWidth="1"/>
     <col min="8" max="8" width="10" style="11" customWidth="1"/>
     <col min="9" max="9" width="13" style="11" customWidth="1"/>
-    <col min="10" max="11" width="13.5546875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="11" customWidth="1"/>
+    <col min="10" max="11" width="13.58203125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="10.58203125" style="11" customWidth="1"/>
     <col min="13" max="13" width="26" style="11" customWidth="1"/>
-    <col min="14" max="16384" width="8.5546875" style="11"/>
+    <col min="14" max="16384" width="8.58203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1">
@@ -33776,7 +33767,7 @@
       <c r="L6" s="28" t="s">
         <v>672</v>
       </c>
-      <c r="M6" s="198" t="s">
+      <c r="M6" s="212" t="s">
         <v>673</v>
       </c>
     </row>
@@ -33817,7 +33808,7 @@
       <c r="L7" s="28" t="s">
         <v>679</v>
       </c>
-      <c r="M7" s="198"/>
+      <c r="M7" s="212"/>
     </row>
     <row r="8" spans="1:13" s="10" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="16">
@@ -33926,7 +33917,7 @@
       <c r="L10" s="28" t="s">
         <v>694</v>
       </c>
-      <c r="M10" s="198" t="s">
+      <c r="M10" s="212" t="s">
         <v>695</v>
       </c>
     </row>
@@ -33967,7 +33958,7 @@
       <c r="L11" s="28" t="s">
         <v>701</v>
       </c>
-      <c r="M11" s="198"/>
+      <c r="M11" s="212"/>
     </row>
     <row r="12" spans="1:13" s="10" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="16">
@@ -36290,17 +36281,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="36.5546875" style="172" customWidth="1"/>
+    <col min="1" max="1" width="36.58203125" style="172" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" style="172" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="172" customWidth="1"/>
+    <col min="3" max="3" width="9.9140625" style="172" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="172" customWidth="1"/>
     <col min="5" max="5" width="16" style="172" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="172" customWidth="1"/>
+    <col min="6" max="6" width="25.08203125" style="172" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" style="172" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" style="172" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" style="172" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" style="172" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" style="172" customWidth="1"/>
+    <col min="8" max="8" width="20.08203125" style="172" customWidth="1"/>
+    <col min="9" max="9" width="16.9140625" style="172" customWidth="1"/>
+    <col min="10" max="10" width="16.58203125" style="172" customWidth="1"/>
+    <col min="11" max="11" width="10.08203125" style="172" customWidth="1"/>
     <col min="12" max="12" width="16.6640625" style="172" customWidth="1"/>
     <col min="13" max="13" width="20" style="172" customWidth="1"/>
     <col min="14" max="16384" width="10" style="172"/>
@@ -36337,7 +36328,7 @@
         <f>[1]说明!E16</f>
         <v>21.14.208.0</v>
       </c>
-      <c r="G2" s="201" t="str">
+      <c r="G2" s="215" t="str">
         <f>IF([1]说明!B4=2000,[1]基础数据!Q2&amp;"."&amp;[1]基础数据!Q3&amp;".163.0/24
 "&amp;[1]基础数据!Q2&amp;"."&amp;[1]基础数据!Q3&amp;".164.0/22
 "&amp;[1]基础数据!Q2&amp;"."&amp;[1]基础数据!Q3&amp;".168.0/21
@@ -36366,7 +36357,7 @@
         <v>21.14.183.254</v>
       </c>
       <c r="F3" s="182"/>
-      <c r="G3" s="202"/>
+      <c r="G3" s="216"/>
       <c r="I3" s="183"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
@@ -36390,7 +36381,7 @@
         <v>21.14.185.254</v>
       </c>
       <c r="F4" s="182"/>
-      <c r="G4" s="202"/>
+      <c r="G4" s="216"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
       <c r="A5" s="177" t="s">
@@ -36412,7 +36403,7 @@
         <f>[1]基础数据!E3&amp;[1]基础数据!E4+[1]说明!B8-"1"&amp;".254"</f>
         <v>21.14.175.254</v>
       </c>
-      <c r="G5" s="202"/>
+      <c r="G5" s="216"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
       <c r="A6" s="177" t="s">
@@ -36455,10 +36446,10 @@
       <c r="E7" s="177" t="s">
         <v>725</v>
       </c>
-      <c r="F7" s="199" t="s">
+      <c r="F7" s="213" t="s">
         <v>727</v>
       </c>
-      <c r="G7" s="199"/>
+      <c r="G7" s="213"/>
       <c r="H7" s="181"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
@@ -36628,10 +36619,10 @@
         <v>100.0.0.0/23</v>
       </c>
       <c r="E14" s="175"/>
-      <c r="G14" s="200"/>
-      <c r="H14" s="200"/>
-      <c r="I14" s="200"/>
-      <c r="J14" s="200"/>
+      <c r="G14" s="214"/>
+      <c r="H14" s="214"/>
+      <c r="I14" s="214"/>
+      <c r="J14" s="214"/>
     </row>
     <row r="18" spans="10:12" ht="15" customHeight="1">
       <c r="K18" s="173"/>
@@ -36682,101 +36673,101 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.75" customWidth="1"/>
+    <col min="2" max="2" width="22.4140625" customWidth="1"/>
+    <col min="3" max="3" width="35.58203125" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="27.4140625" customWidth="1"/>
+    <col min="7" max="7" width="18.9140625" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.08203125" customWidth="1"/>
     <col min="10" max="10" width="21.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" customWidth="1"/>
-    <col min="14" max="14" width="12.77734375" customWidth="1"/>
-    <col min="18" max="18" width="19.77734375" customWidth="1"/>
-    <col min="24" max="24" width="12.77734375" customWidth="1"/>
+    <col min="12" max="12" width="13.9140625" customWidth="1"/>
+    <col min="13" max="13" width="15.08203125" customWidth="1"/>
+    <col min="14" max="14" width="12.75" customWidth="1"/>
+    <col min="18" max="18" width="19.75" customWidth="1"/>
+    <col min="24" max="24" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:248" s="144" customFormat="1" ht="33.6" customHeight="1">
-      <c r="A1" s="218" t="s">
+    <row r="1" spans="1:248" s="144" customFormat="1" ht="33.65" customHeight="1">
+      <c r="A1" s="202" t="s">
         <v>921</v>
       </c>
-      <c r="B1" s="216" t="s">
+      <c r="B1" s="200" t="s">
         <v>421</v>
       </c>
-      <c r="C1" s="217" t="s">
+      <c r="C1" s="201" t="s">
         <v>289</v>
       </c>
-      <c r="D1" s="216" t="s">
+      <c r="D1" s="200" t="s">
         <v>422</v>
       </c>
-      <c r="E1" s="215" t="s">
+      <c r="E1" s="199" t="s">
         <v>292</v>
       </c>
-      <c r="F1" s="214" t="s">
+      <c r="F1" s="198" t="s">
         <v>423</v>
       </c>
-      <c r="G1" s="214" t="s">
+      <c r="G1" s="198" t="s">
         <v>424</v>
       </c>
-      <c r="H1" s="214" t="s">
+      <c r="H1" s="198" t="s">
         <v>425</v>
       </c>
-      <c r="I1" s="214" t="s">
+      <c r="I1" s="198" t="s">
         <v>426</v>
       </c>
-      <c r="J1" s="214" t="s">
+      <c r="J1" s="198" t="s">
         <v>427</v>
       </c>
-      <c r="K1" s="213" t="s">
+      <c r="K1" s="197" t="s">
         <v>294</v>
       </c>
-      <c r="L1" s="214" t="s">
+      <c r="L1" s="198" t="s">
         <v>295</v>
       </c>
-      <c r="M1" s="213" t="s">
+      <c r="M1" s="197" t="s">
         <v>296</v>
       </c>
-      <c r="N1" s="213" t="s">
+      <c r="N1" s="197" t="s">
         <v>428</v>
       </c>
-      <c r="O1" s="213" t="s">
+      <c r="O1" s="197" t="s">
         <v>429</v>
       </c>
-      <c r="P1" s="213" t="s">
+      <c r="P1" s="197" t="s">
         <v>430</v>
       </c>
-      <c r="Q1" s="213" t="s">
+      <c r="Q1" s="197" t="s">
         <v>431</v>
       </c>
-      <c r="R1" s="213" t="s">
+      <c r="R1" s="197" t="s">
         <v>432</v>
       </c>
-      <c r="S1" s="213" t="s">
+      <c r="S1" s="197" t="s">
         <v>298</v>
       </c>
-      <c r="T1" s="213" t="s">
+      <c r="T1" s="197" t="s">
         <v>299</v>
       </c>
-      <c r="U1" s="213" t="s">
+      <c r="U1" s="197" t="s">
         <v>433</v>
       </c>
-      <c r="V1" s="213" t="s">
+      <c r="V1" s="197" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="214" t="s">
+      <c r="W1" s="198" t="s">
         <v>301</v>
       </c>
-      <c r="X1" s="213" t="s">
+      <c r="X1" s="197" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:248" s="8" customFormat="1" ht="11.4">
-      <c r="A2" s="209">
+    <row r="2" spans="1:248" s="8" customFormat="1" ht="12">
+      <c r="A2" s="193">
         <v>1</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -36804,24 +36795,24 @@
       <c r="I2" s="66" t="s">
         <v>441</v>
       </c>
-      <c r="J2" s="211" t="s">
+      <c r="J2" s="195" t="s">
         <v>903</v>
       </c>
-      <c r="K2" s="212">
+      <c r="K2" s="196">
         <v>1001</v>
       </c>
-      <c r="L2" s="211" t="s">
+      <c r="L2" s="195" t="s">
         <v>916</v>
       </c>
-      <c r="M2" s="210" t="s">
+      <c r="M2" s="194" t="s">
         <v>441</v>
       </c>
       <c r="N2" s="133" t="s">
         <v>901</v>
       </c>
-      <c r="O2" s="209"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209" t="s">
+      <c r="O2" s="193"/>
+      <c r="P2" s="193"/>
+      <c r="Q2" s="193" t="s">
         <v>900</v>
       </c>
       <c r="R2" s="71" t="s">
@@ -36843,7 +36834,7 @@
         <f>MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",1))+1,FIND("$",SUBSTITUTE(C2,"-","$",1))-2)</f>
         <v>4FM</v>
       </c>
-      <c r="W2" s="208"/>
+      <c r="W2" s="192"/>
       <c r="X2" s="148"/>
       <c r="Y2" s="73"/>
       <c r="Z2" s="73"/>
@@ -37070,8 +37061,8 @@
       <c r="IM2" s="73"/>
       <c r="IN2" s="73"/>
     </row>
-    <row r="3" spans="1:248" s="8" customFormat="1" ht="11.4">
-      <c r="A3" s="209">
+    <row r="3" spans="1:248" s="8" customFormat="1" ht="12">
+      <c r="A3" s="193">
         <v>2</v>
       </c>
       <c r="B3" s="63" t="s">
@@ -37099,24 +37090,24 @@
       <c r="I3" s="66" t="s">
         <v>441</v>
       </c>
-      <c r="J3" s="211" t="s">
+      <c r="J3" s="195" t="s">
         <v>903</v>
       </c>
-      <c r="K3" s="212">
+      <c r="K3" s="196">
         <v>1001</v>
       </c>
-      <c r="L3" s="211" t="s">
+      <c r="L3" s="195" t="s">
         <v>912</v>
       </c>
-      <c r="M3" s="210" t="s">
+      <c r="M3" s="194" t="s">
         <v>441</v>
       </c>
       <c r="N3" s="133" t="s">
         <v>901</v>
       </c>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209" t="s">
+      <c r="O3" s="193"/>
+      <c r="P3" s="193"/>
+      <c r="Q3" s="193" t="s">
         <v>900</v>
       </c>
       <c r="R3" s="71" t="s">
@@ -37138,7 +37129,7 @@
         <f>MID(C3,FIND("$",SUBSTITUTE(C3,"-","$",1))+1,FIND("$",SUBSTITUTE(C3,"-","$",1))-2)</f>
         <v>4FM</v>
       </c>
-      <c r="W3" s="208"/>
+      <c r="W3" s="192"/>
       <c r="X3" s="148"/>
       <c r="Y3" s="73"/>
       <c r="Z3" s="73"/>
@@ -37365,8 +37356,8 @@
       <c r="IM3" s="73"/>
       <c r="IN3" s="73"/>
     </row>
-    <row r="4" spans="1:248" s="8" customFormat="1" ht="11.4">
-      <c r="A4" s="209">
+    <row r="4" spans="1:248" s="8" customFormat="1" ht="12">
+      <c r="A4" s="193">
         <v>3</v>
       </c>
       <c r="B4" s="63" t="s">
@@ -37394,24 +37385,24 @@
       <c r="I4" s="66" t="s">
         <v>441</v>
       </c>
-      <c r="J4" s="211" t="s">
+      <c r="J4" s="195" t="s">
         <v>903</v>
       </c>
-      <c r="K4" s="212">
+      <c r="K4" s="196">
         <v>1001</v>
       </c>
-      <c r="L4" s="211" t="s">
+      <c r="L4" s="195" t="s">
         <v>908</v>
       </c>
-      <c r="M4" s="210" t="s">
+      <c r="M4" s="194" t="s">
         <v>441</v>
       </c>
       <c r="N4" s="133" t="s">
         <v>901</v>
       </c>
-      <c r="O4" s="209"/>
-      <c r="P4" s="209"/>
-      <c r="Q4" s="209" t="s">
+      <c r="O4" s="193"/>
+      <c r="P4" s="193"/>
+      <c r="Q4" s="193" t="s">
         <v>900</v>
       </c>
       <c r="R4" s="71" t="s">
@@ -37433,7 +37424,7 @@
         <f>MID(C4,FIND("$",SUBSTITUTE(C4,"-","$",1))+1,FIND("$",SUBSTITUTE(C4,"-","$",1))-2)</f>
         <v>4FM</v>
       </c>
-      <c r="W4" s="208" t="s">
+      <c r="W4" s="192" t="s">
         <v>898</v>
       </c>
       <c r="X4" s="148"/>
@@ -37662,8 +37653,8 @@
       <c r="IM4" s="73"/>
       <c r="IN4" s="73"/>
     </row>
-    <row r="5" spans="1:248" s="8" customFormat="1" ht="11.4">
-      <c r="A5" s="209">
+    <row r="5" spans="1:248" s="8" customFormat="1" ht="12">
+      <c r="A5" s="193">
         <v>4</v>
       </c>
       <c r="B5" s="63" t="s">
@@ -37691,24 +37682,24 @@
       <c r="I5" s="66" t="s">
         <v>441</v>
       </c>
-      <c r="J5" s="211" t="s">
+      <c r="J5" s="195" t="s">
         <v>903</v>
       </c>
-      <c r="K5" s="212">
+      <c r="K5" s="196">
         <v>1001</v>
       </c>
-      <c r="L5" s="211" t="s">
+      <c r="L5" s="195" t="s">
         <v>902</v>
       </c>
-      <c r="M5" s="210" t="s">
+      <c r="M5" s="194" t="s">
         <v>441</v>
       </c>
       <c r="N5" s="133" t="s">
         <v>901</v>
       </c>
-      <c r="O5" s="209"/>
-      <c r="P5" s="209"/>
-      <c r="Q5" s="209" t="s">
+      <c r="O5" s="193"/>
+      <c r="P5" s="193"/>
+      <c r="Q5" s="193" t="s">
         <v>900</v>
       </c>
       <c r="R5" s="71" t="s">
@@ -37730,7 +37721,7 @@
         <f>MID(C5,FIND("$",SUBSTITUTE(C5,"-","$",1))+1,FIND("$",SUBSTITUTE(C5,"-","$",1))-2)</f>
         <v>4FM</v>
       </c>
-      <c r="W5" s="208" t="s">
+      <c r="W5" s="192" t="s">
         <v>898</v>
       </c>
       <c r="X5" s="148"/>
@@ -37960,7 +37951,7 @@
       <c r="IN5" s="73"/>
     </row>
     <row r="14" spans="1:248">
-      <c r="V14" s="207"/>
+      <c r="V14" s="191"/>
     </row>
   </sheetData>
   <phoneticPr fontId="45" type="noConversion"/>
@@ -37970,26 +37961,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d0a44472-358d-4f72-9b41-73280ab5bb44">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="abe9a1fc-9b1b-4145-a7c0-c219f34cbfe1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x01010035289B95AB6962459D297FEDC06642CB" ma:contentTypeVersion="10" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="88f916436acc191cb29b973d5e54b253">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d0a44472-358d-4f72-9b41-73280ab5bb44" xmlns:ns3="abe9a1fc-9b1b-4145-a7c0-c219f34cbfe1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="206302c314b3f99b2048dfcddcc1663b" ns2:_="" ns3:_="">
     <xsd:import namespace="d0a44472-358d-4f72-9b41-73280ab5bb44"/>
@@ -38178,10 +38149,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d0a44472-358d-4f72-9b41-73280ab5bb44">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="abe9a1fc-9b1b-4145-a7c0-c219f34cbfe1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D85166B-068B-4EF9-ACE2-1BB8C6FE521A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08715CED-CF94-453B-A0E7-B42A677949BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d0a44472-358d-4f72-9b41-73280ab5bb44"/>
+    <ds:schemaRef ds:uri="abe9a1fc-9b1b-4145-a7c0-c219f34cbfe1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -38198,5 +38200,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08715CED-CF94-453B-A0E7-B42A677949BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D85166B-068B-4EF9-ACE2-1BB8C6FE521A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>